--- a/story/Story Summarization 剧情简述/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_06-13_beg.xlsx
+++ b/story/Story Summarization 剧情简述/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_06-13_beg.xlsx
@@ -44,7 +44,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Returning to the time after Doctor and FrostNova fell…
+    <t xml:space="preserve">Returning to the time after Doctor and FrostNova fell...
 </t>
   </si>
   <si>
